--- a/Viskoelastizität - Rheologie/Auswertung/Fehlerabschaetzung_Konzentration_Guaran.xlsx
+++ b/Viskoelastizität - Rheologie/Auswertung/Fehlerabschaetzung_Konzentration_Guaran.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan-Philipp\Documents\Eigene Dokumente\Physikstudium\5. Semester\F2- Fortgeschrittenenpraktikum\Viskoelastizität - Rheologie\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D570FA98-58A2-42A0-B253-448559A461EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC1672-75EA-49B2-B4AA-6EA34B29C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19110" yWindow="7170" windowWidth="36000" windowHeight="19290" xr2:uid="{DA6FEAD9-5D29-4B7F-BAB4-8B062B5BAFDC}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{DA6FEAD9-5D29-4B7F-BAB4-8B062B5BAFDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Fehlerabschaetzung_Konzentratio" sheetId="1" r:id="rId1"/>
@@ -61,8 +61,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,8 +95,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,12 +462,12 @@
         <v>0.25074203444934712</v>
       </c>
       <c r="E2" s="1">
-        <f>SQRT((B2/1000*0.99705*0.0002/(C2+B2/1000*0.99705)^2)^2+(C2*0.99705*2/1000/(C2+B2/1000*0.99705)^2)^2+(B2/1000*C2*0.0015/(C2+B2/1000*0.99705)^2)^2)</f>
-        <v>1.6795615635677432E-4</v>
+        <f>SQRT((B2/1000*0.99705*0.0002/(C2+B2/1000*0.99705)^2)^2+(C2*0.99705*2/1000/(C2+B2/1000*0.99705)^2)^2+(B2/1000*C2*0.0015/(C2+B2/1000*0.99705)^2)^2)*100</f>
+        <v>1.6795615635677431E-2</v>
       </c>
       <c r="F2" s="2">
         <f>E2/D2*100</f>
-        <v>6.6983645851650564E-2</v>
+        <v>6.6983645851650548</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,12 +485,12 @@
         <v>0.50134933473293353</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E7" si="1">SQRT((B3/1000*0.99705*0.0002/(C3+B3/1000*0.99705)^2)^2+(C3*0.99705*2/1000/(C3+B3/1000*0.99705)^2)^2+(B3/1000*C3*0.0015/(C3+B3/1000*0.99705)^2)^2)</f>
-        <v>1.3593149152350598E-4</v>
+        <f t="shared" ref="E3:E7" si="1">SQRT((B3/1000*0.99705*0.0002/(C3+B3/1000*0.99705)^2)^2+(C3*0.99705*2/1000/(C3+B3/1000*0.99705)^2)^2+(B3/1000*C3*0.0015/(C3+B3/1000*0.99705)^2)^2)*100</f>
+        <v>1.3593149152350598E-2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F7" si="2">E3/D3*100</f>
-        <v>2.7113128931529559E-2</v>
+        <v>2.7113128931529564</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -509,11 +509,11 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>1.8089943375144182E-4</v>
+        <v>1.808994337514418E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>1.8038252219873856E-2</v>
+        <v>1.8038252219873854</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,11 +532,11 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>1.7135159641057214E-4</v>
+        <v>1.7135159641057215E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>1.2205402354010596E-2</v>
+        <v>1.2205402354010597</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,11 +555,11 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>2.0627732179905831E-4</v>
+        <v>2.0627732179905833E-2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>1.0290750741496628E-2</v>
+        <v>1.029075074149663</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,11 +578,11 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>1.8556797948393483E-4</v>
+        <v>1.8556797948393482E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>8.047300622452987E-3</v>
+        <v>0.80473006224529875</v>
       </c>
     </row>
   </sheetData>
